--- a/Test_cases/TC-01.xlsx
+++ b/Test_cases/TC-01.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\Desktop\-TestingAplicaciones-BearCode-TPO\Test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compumar\Documents\Testing\-TestingAplicaciones-BearCode-TPO\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBDAD49-B559-4998-AC09-E6A24AE36DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PE-16" sheetId="1" r:id="rId1"/>
-    <sheet name="PE-54" sheetId="4" r:id="rId2"/>
-    <sheet name="PE-53" sheetId="6" r:id="rId3"/>
-    <sheet name="PE-44" sheetId="8" r:id="rId4"/>
-    <sheet name="PE-10" sheetId="9" r:id="rId5"/>
+    <sheet name="PE-16 ERROR" sheetId="10" r:id="rId2"/>
+    <sheet name="PE-54" sheetId="4" r:id="rId3"/>
+    <sheet name="PE-54 ERROR" sheetId="11" r:id="rId4"/>
+    <sheet name="PE-53" sheetId="6" r:id="rId5"/>
+    <sheet name="PE-44" sheetId="8" r:id="rId6"/>
+    <sheet name="PE-10" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="142">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -377,9 +378,6 @@
     <t>Tipo de tarjera de credito: Visa</t>
   </si>
   <si>
-    <t>Número de tarjeta de crédito</t>
-  </si>
-  <si>
     <t>Compra de productos seleccionados</t>
   </si>
   <si>
@@ -435,13 +433,31 @@
   </si>
   <si>
     <t>Hacer click en el boron que nos direcciona al home-page</t>
+  </si>
+  <si>
+    <t>Número de tarjeta de crédito:2783621546273849</t>
+  </si>
+  <si>
+    <t>El sitio deberá avisar que el campo email es obligatorio</t>
+  </si>
+  <si>
+    <t>email=</t>
+  </si>
+  <si>
+    <t>El sitio debería avisar que no existe un mail creado con esa cuenta</t>
+  </si>
+  <si>
+    <t>email=cuentanueva@gmail.com</t>
+  </si>
+  <si>
+    <t>No estar registrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -563,6 +579,38 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -602,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -946,11 +994,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1004,27 +1067,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,31 +1141,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,58 +1186,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1195,6 +1253,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,6 +1388,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>864870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2373630" cy="1952625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7913370" y="228600"/>
+          <a:ext cx="2373630" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2383155" cy="2392680"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image2.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5374005" y="1"/>
+          <a:ext cx="2383155" cy="2392680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1332,7 +1504,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2857500" cy="2381250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="9525"/>
+          <a:ext cx="2857500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1371,7 +1586,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1410,7 +1625,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1646,20 +1861,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,12 +1887,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1683,7 +1901,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1693,12 +1911,12 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1707,14 +1925,14 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1949,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1747,7 +1965,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1771,18 +1989,18 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1791,7 +2009,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -1802,11 +2020,11 @@
       <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1815,7 +2033,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1826,11 +2044,11 @@
       <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1839,7 +2057,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -1850,11 +2068,11 @@
       <c r="D9" s="15">
         <v>4</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1863,18 +2081,18 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
       <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1883,14 +2101,14 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="15">
         <v>6</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="107" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="9"/>
@@ -1902,18 +2120,18 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="15">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1922,394 +2140,381 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="107" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
       <c r="D14" s="15">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="107" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="15">
         <v>10</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="105" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="79" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="15">
         <v>11</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="15">
         <v>12</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="105" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="4"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="4"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="59"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="65" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="61" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>1</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56" t="s">
+      <c r="C26" s="99"/>
+      <c r="D26" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <v>2</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="99"/>
+      <c r="D27" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
         <v>3</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56" t="s">
+      <c r="C28" s="99"/>
+      <c r="D28" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39">
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>4</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="99"/>
+      <c r="D29" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="55"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39">
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
         <v>5</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="99"/>
+      <c r="D30" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="55"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="59"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="K26:L26"/>
@@ -2324,37 +2529,740 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="15">
+        <v>6</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="15">
+        <v>7</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="15">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="15">
+        <v>11</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="15">
+        <v>12</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>1</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>3</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>4</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="50"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:L30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,19 +3272,19 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2386,26 +3294,26 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +3328,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2434,7 +3342,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -2452,21 +3360,21 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -2480,15 +3388,15 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -2502,15 +3410,15 @@
       <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -2524,15 +3432,15 @@
       <c r="E9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -2546,20 +3454,20 @@
       <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="41"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2567,262 +3475,262 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="22"/>
-      <c r="E13" s="44"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="20"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="59"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="79" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+    <row r="19" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
         <v>1</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39">
+    <row r="20" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>2</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+    <row r="21" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>3</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>4</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2831,123 +3739,108 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="61" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="4"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="64"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="85"/>
-      <c r="E36" s="64"/>
+      <c r="E36" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -2963,35 +3856,692 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>3</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>1</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>2</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="F29" s="50"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="F30" s="50"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,19 +4551,19 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3023,26 +4573,26 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3057,7 +4607,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3071,7 +4621,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -3093,25 +4643,25 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -3122,18 +4672,18 @@
       <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -3144,18 +4694,18 @@
       <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -3166,47 +4716,47 @@
       <c r="D9" s="15">
         <v>4</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="15">
         <v>6</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="107" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="9"/>
@@ -3216,558 +4766,568 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="15">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
       <c r="D14" s="15">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="107" t="s">
         <v>86</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="4"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="79" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="59"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="104" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+    <row r="21" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>1</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>2</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="87" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>4</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="54" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+    <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>5</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="61" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>6</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="54" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <v>7</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="87" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
         <v>8</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39">
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>9</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="55"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="54" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="55"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="54" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
         <v>10</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="87"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="88"/>
+      <c r="E47" s="55"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="64"/>
-    </row>
-    <row r="49" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="64"/>
-    </row>
-    <row r="50" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="64"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="64"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="64"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="64"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="64"/>
-    </row>
-    <row r="55" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="64"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="55"/>
+    </row>
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="44"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="55"/>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="55"/>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="55"/>
+    </row>
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -3780,66 +5340,58 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3849,19 +5401,19 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3871,26 +5423,26 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +5457,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3919,7 +5471,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3937,21 +5489,21 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -3965,15 +5517,15 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -3987,15 +5539,15 @@
       <c r="E8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -4009,15 +5561,15 @@
       <c r="E9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -4031,23 +5583,23 @@
       <c r="E10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>117</v>
+      <c r="E11" s="105" t="s">
+        <v>136</v>
       </c>
       <c r="F11" s="9"/>
       <c r="H11" s="4"/>
@@ -4056,396 +5608,394 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="79" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="37"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="65" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
-        <v>2</v>
-      </c>
-      <c r="B19" s="56" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>3</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>4</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39">
-        <v>3</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
-        <v>4</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>5</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>6</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="61" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="4"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="59"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -4458,66 +6008,70 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="D1" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4527,26 +6081,26 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +6115,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4575,7 +6129,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -4593,21 +6147,21 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -4621,15 +6175,15 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -4637,21 +6191,21 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -4659,40 +6213,40 @@
         <v>20</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4700,383 +6254,357 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="22"/>
-      <c r="E13" s="44"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="20"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
         <v>1</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
         <v>2</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="57" t="s">
+      <c r="B20" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="64"/>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="64"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="64"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="61" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="80"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="4"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G27" s="79"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G28" s="79"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G29" s="79"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="D32" s="53"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
@@ -5089,12 +6617,38 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
